--- a/biology/Zoologie/Capricornis_crispus/Capricornis_crispus.xlsx
+++ b/biology/Zoologie/Capricornis_crispus/Capricornis_crispus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le saro du Japon (Capricornis crispus), connu en japonais comme Nihon kamoshika (ニホンカモシカ?), est un capriné vivant dans les forêts de Honshū au Japon.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils mesurent 60 à 90 cm au garrot pour 30 à 130 kg[réf. nécessaire]. Leur fourrure est touffue. Leur robe mêle blanc et brun avec un dessous noir. Les deux sexes arborent des cornes de 10 cm recourbées en arrière.
 Ils sont diurnes. On les trouve sur les reliefs boisés où ils se nourrissent de feuilles et de glands. Ils ne mangent que le matin et le soir, passant le reste de la journée sous des abris rocheux. Ils sont solitaires ou se déplacent en couples, parfois avec leurs jeunes. Leur territoire est réduit (de 2 à 20 ha). Ils le marquent d'une substance claire à l'odeur de vinaigre sécrétée par leurs glandes préorbitales, bien visibles sous les yeux.
